--- a/PCB/Wykaz_elementów.xlsx
+++ b/PCB/Wykaz_elementów.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STM32\free_michelle\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC13E9-BB46-430E-8998-B6D56E20DA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C133B6-A395-422C-81B6-9377CCA1A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Nazwa</t>
   </si>
@@ -33,27 +42,18 @@
     <t>Ilość</t>
   </si>
   <si>
-    <t>FP</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
     <t>STM32F411 BlackPill</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>Wyświetlacz dotykowy TFT LCD 2,4″ 240x320px</t>
   </si>
   <si>
     <t>Cena</t>
   </si>
   <si>
-    <t>BRAK</t>
-  </si>
-  <si>
     <t>RTC DS3231M</t>
   </si>
   <si>
@@ -100,6 +100,75 @@
   </si>
   <si>
     <t>TackSwitch</t>
+  </si>
+  <si>
+    <t>Koszyk na baterie</t>
+  </si>
+  <si>
+    <t>Rezystor 10k 1206</t>
+  </si>
+  <si>
+    <t>Rezystor 4k7 1206</t>
+  </si>
+  <si>
+    <t>Rezystor 2k2 1206</t>
+  </si>
+  <si>
+    <t>Rezystor THT 110, 730, 290</t>
+  </si>
+  <si>
+    <t>Kondensator SMD 100nF 1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kondensator THT Elektrolit 47uF </t>
+  </si>
+  <si>
+    <t>Kondensator SMD 1uF 1206</t>
+  </si>
+  <si>
+    <t>Stabilizator 5V L7805</t>
+  </si>
+  <si>
+    <t>Złącze GROVE 1x4 2.00mm</t>
+  </si>
+  <si>
+    <t>Złącze ARK 1x03</t>
+  </si>
+  <si>
+    <t>PinHead 1x02 2,54</t>
+  </si>
+  <si>
+    <t>BSS138</t>
+  </si>
+  <si>
+    <t>MMBT4403_PNP</t>
+  </si>
+  <si>
+    <t>Złącze ARK 1x03 5mm</t>
+  </si>
+  <si>
+    <t>Złącze ARK 1,02 5mm</t>
+  </si>
+  <si>
+    <t>Dioda prostownicza 1N4148</t>
+  </si>
+  <si>
+    <t>Gniazdo DC IN 5,5X2,5</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>Podstawka na EEPROM</t>
+  </si>
+  <si>
+    <t>Gniazdo Goldpin proste</t>
+  </si>
+  <si>
+    <t>Gniazdo żeńskie 2x4</t>
   </si>
 </sst>
 </file>
@@ -143,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,30 +235,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -472,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G36"/>
+  <dimension ref="B3:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -486,12 +566,11 @@
     <col min="5" max="5" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,404 +578,648 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3">
+        <f>E5*C5</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3">
+        <f>E6*C6</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F39" si="0">E7*C7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="4" t="s">
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7">
-        <v>45</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5">
-        <v>56</v>
-      </c>
-      <c r="F6" s="5" t="s">
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3">
         <v>8</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="5">
-        <v>40</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3">
         <v>8</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="3">
         <v>8</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5">
-        <v>13</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="8">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="8">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="4"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="4"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="4"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F40" s="6">
+        <f>SUM(F5:F39)</f>
+        <v>313.25</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -914,8 +1237,28 @@
     <hyperlink ref="D16" r:id="rId12" xr:uid="{0E8DF692-5F54-486A-85DD-A0A1937272AF}"/>
     <hyperlink ref="D17" r:id="rId13" xr:uid="{DE1B19DE-9EE0-43DF-8BED-EFF60CD327D6}"/>
     <hyperlink ref="D18" r:id="rId14" xr:uid="{BF8F79EC-C813-4E9A-A61F-E83B9D840ACF}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{F0EA7A76-45CA-4950-9E1A-048C216839BD}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{2DB69C8D-7C9B-406E-BF94-D3EDA446CF6F}"/>
+    <hyperlink ref="D21" r:id="rId17" xr:uid="{C61F0012-EFF2-4873-804B-3379470BDDE6}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{2D4E9BC1-8A36-46AA-92B1-96BC4DAB078B}"/>
+    <hyperlink ref="D23" r:id="rId19" xr:uid="{D4D341EF-00D2-4F4E-97C4-DB2FF94010B2}"/>
+    <hyperlink ref="D24" r:id="rId20" xr:uid="{9FCD6966-18D2-4A91-9CF7-41A2B725AF0A}"/>
+    <hyperlink ref="D25" r:id="rId21" xr:uid="{5C968554-5151-47DF-B2D8-564C4898DD3A}"/>
+    <hyperlink ref="D26" r:id="rId22" xr:uid="{CAAC3EE2-ECFE-4584-84A9-238C473343DC}"/>
+    <hyperlink ref="D27" r:id="rId23" xr:uid="{3ED0B051-6AE7-4AA3-9E87-305EEDCCB15D}"/>
+    <hyperlink ref="D28" r:id="rId24" xr:uid="{E6B15F56-F12A-479C-9E99-18CBBED7C8A6}"/>
+    <hyperlink ref="D30" r:id="rId25" xr:uid="{567E14F1-40A6-41AB-9BFA-FF9838DE92F5}"/>
+    <hyperlink ref="D31" r:id="rId26" xr:uid="{FB5BD86B-8FE8-434E-A215-FCDBC4FFC8B1}"/>
+    <hyperlink ref="D32" r:id="rId27" xr:uid="{22B38EE7-E3F4-44F2-BC0B-EF59B00C0F6D}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{CD287D1D-AD70-4E8E-B5C2-85B38AD75490}"/>
+    <hyperlink ref="D34" r:id="rId29" xr:uid="{CBBCE071-23A1-498D-9F25-ECE25594B29C}"/>
+    <hyperlink ref="D35" r:id="rId30" xr:uid="{FF9C49F5-98E2-4BFB-82C0-F0AD5388E371}"/>
+    <hyperlink ref="D39" r:id="rId31" xr:uid="{888F69A6-82B3-44FF-8731-F687044F2941}"/>
+    <hyperlink ref="D36" r:id="rId32" xr:uid="{9A6053F5-AB1D-4DAD-88E6-B26AA1FD9051}"/>
+    <hyperlink ref="D38" r:id="rId33" xr:uid="{1391999B-A594-4504-954F-3C5B761E28CE}"/>
+    <hyperlink ref="D37" r:id="rId34" xr:uid="{7322A560-7D6D-49BD-8947-3CE617570325}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>